--- a/G35SMU_0326/G35SMU_2gyk.xlsx
+++ b/G35SMU_0326/G35SMU_2gyk.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773B3DF-B7A6-459A-8930-CA803BC40D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F22FEC-7DAC-4109-8972-5308AE306F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,14 +97,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -385,111 +396,141 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="4">
+        <f>B3*(1+$A$3)</f>
+        <v>2.54</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="F3" s="4">
         <v>2.5</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="6">
+        <f>F3/(1+$E$3)</f>
+        <v>1.9685039370078741</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C7" si="0">B4*(1+$A$3)</f>
+        <v>7.62</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>7.5</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G7" si="1">F4/(1+$E$3)</f>
+        <v>5.9055118110236222</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>10.16</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>7.8740157480314963</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>13.97</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>13.75</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>10.826771653543307</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>17.78</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>17.5</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>13.779527559055119</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/G35SMU_0326/G35SMU_2gyk.xlsx
+++ b/G35SMU_0326/G35SMU_2gyk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F22FEC-7DAC-4109-8972-5308AE306F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7331DE-4888-4D29-8CDF-436F5C5006BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,16 +101,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,21 +396,21 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -434,100 +434,100 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>0.27</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>B3*(1+$A$3)</f>
         <v>2.54</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.27</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>F3/(1+$E$3)</f>
         <v>1.9685039370078741</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C7" si="0">B4*(1+$A$3)</f>
         <v>7.62</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>7.5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f t="shared" ref="G4:G7" si="1">F4/(1+$E$3)</f>
         <v>5.9055118110236222</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>10.16</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>7.8740157480314963</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>13.97</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>13.75</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>10.826771653543307</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>17.78</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>17.5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>13.779527559055119</v>
       </c>
